--- a/beverage_sales.xlsx
+++ b/beverage_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,126 +463,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>8f016401-3b26-4728-a4d6-1d0f9cf4d028</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>xksksjd</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Soft Drinks</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7UP</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2024-09-14</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>15:57:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>dcc87036-a635-4a78-8d26-d452d62455e8</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>xksksjd</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Soft Drinks</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7UP</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2024-09-14</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>16:01:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>cbe1f43b-3b67-4321-93c1-c0cb9ab5d782</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>xksksjd</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Soft Drinks</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7UP</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2024-09-14</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>16:02:59</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/beverage_sales.xlsx
+++ b/beverage_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,46 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>707d22be-52ec-4e60-8c20-5f4b21586443</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>s3Ida</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7UP</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>01:19:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/beverage_sales.xlsx
+++ b/beverage_sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,46 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4b31a1f2-c211-481c-8fc7-8b89583eff35</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dayli</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Juices</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>18:22:22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
